--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_rank_up_G.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_rank_up_G.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -505,7 +505,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.3</t>
         </is>
       </c>
     </row>
@@ -788,33 +788,38 @@
       </c>
     </row>
     <row r="23">
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>0.2</t>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>vargus_advice</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>unfocus</t>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>lily_amused</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>0.2</t>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>lily_r5_b</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>まあ。勇ましいこと。……その自信が、どこまで保つか楽しみですね。</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>まあ。勇ましいこと。……その自信が、どこまで保つか楽しみですね。</t>
         </is>
       </c>
     </row>
@@ -828,7 +833,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>lily_amused</t>
+          <t>lily_silent</t>
         </is>
       </c>
     </row>
@@ -840,36 +845,31 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>lily_r5_b</t>
+          <t>lily_r5_c</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>まあ。勇ましいこと。……その自信が、どこまで保つか楽しみですね。</t>
+          <t>……沈黙は恐怖の裏返しか、それとも覚悟の証か。まあ、どちらでもいいのですが。</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>まあ。勇ましいこと。……その自信が、どこまで保つか楽しみですね。</t>
+          <t>……沈黙は恐怖の裏返しか、それとも覚悟の証か。まあ、どちらでもいいのですが。</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>0.2</t>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>vargus_advice</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>unfocus</t>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>vargus_advice</t>
         </is>
       </c>
     </row>
@@ -881,274 +881,150 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>vargus_advice</t>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>lily_silent</t>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="F34" t="inlineStr">
         <is>
-          <t>sukutsu_receptionist</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>lily_r5_c</t>
+          <t>narr_3</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>……沈黙は恐怖の裏返しか、それとも覚悟の証か。まあ、どちらでもいいのですが。</t>
+          <t>（闘技場へ繋がる鉄格子の前で、バルガスが研ぎ澄まされた剣を無造作に弄んでいる。）</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>……沈黙は恐怖の裏返しか、それとも覚悟の証か。まあ、どちらでもいいのですが。</t>
+          <t>（闘技場へ繋がる鉄格子の前で、バルガスが研ぎ澄まされた剣を無造作に弄んでいる。）</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>0.2</t>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>vargus_r1</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>おい、足が震えてんぞ。</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>おい、足が震えてんぞ。</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>unfocus</t>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>vargus_r2</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>……いいか、一度だけ教えてやる。プチ共は『数』で来る。一匹一匹はゴミだが、囲まれればお前の肉は一瞬で削げ落ち、綺麗な骨の標本ができあがりだ。</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>……いいか、一度だけ教えてやる。プチ共は『数』で来る。一匹一匹はゴミだが、囲まれればお前の肉は一瞬で削げ落ち、綺麗な骨の標本ができあがりだ。</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>0.2</t>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>vargus_r3</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>壁を背にしろ。そして、スタミナを切らすな。呼吸を乱した瞬間に、奴らは喉笛に吸い付いてくる。……ほら、行け。観客どもが、お前の悲鳴を心待ちにしてやがるぜ。</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>壁を背にしろ。そして、スタミナを切らすな。呼吸を乱した瞬間に、奴らは喉笛に吸い付いてくる。……ほら、行け。観客どもが、お前の悲鳴を心待ちにしてやがるぜ。</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="B38" t="inlineStr">
         <is>
-          <t>vargus_advice</t>
+          <t>battle_start</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>vargus_advice</t>
+          <t>battle_start</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="D40" t="inlineStr">
         <is>
-          <t>wait</t>
+          <t>eval</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>Elin_SukutsuArena.ArenaManager.StartBattleById("sukutsu_arena_master", 1, true);</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="D41" t="inlineStr">
-        <is>
-          <t>unfocus</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>0.2</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>narr_3</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>（闘技場へ繋がる鉄格子の前で、バルガスが研ぎ澄まされた剣を無造作に弄んでいる。）</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>（闘技場へ繋がる鉄格子の前で、バルガスが研ぎ澄まされた剣を無造作に弄んでいる。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>vargus_r1</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>おい、足が震えてんぞ。</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>おい、足が震えてんぞ。</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>vargus_r2</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>……いいか、一度だけ教えてやる。プチ共は『数』で来る。一匹一匹はゴミだが、囲まれればお前の肉は一瞬で削げ落ち、綺麗な骨の標本ができあがりだ。</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>……いいか、一度だけ教えてやる。プチ共は『数』で来る。一匹一匹はゴミだが、囲まれればお前の肉は一瞬で削げ落ち、綺麗な骨の標本ができあがりだ。</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>vargus_r3</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>壁を背にしろ。そして、スタミナを切らすな。呼吸を乱した瞬間に、奴らは喉笛に吸い付いてくる。……ほら、行け。観客どもが、お前の悲鳴を心待ちにしてやがるぜ。</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>壁を背にしろ。そして、スタミナを切らすな。呼吸を乱した瞬間に、奴らは喉笛に吸い付いてくる。……ほら、行け。観客どもが、お前の悲鳴を心待ちにしてやがるぜ。</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>battle_start</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>battle_start</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartBattleById("sukutsu_arena_master", 1, true);</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="D53" t="inlineStr">
         <is>
           <t>end</t>
         </is>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_rank_up_G.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_rank_up_G.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="drama_rank_up_G" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="rank_up_G" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_rank_up_G.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_rank_up_G.xlsx
@@ -680,7 +680,7 @@
     <row r="18">
       <c r="B18" t="inlineStr">
         <is>
-          <t>lily_confident</t>
+          <t>lily_react_0</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -707,7 +707,7 @@
     <row r="19">
       <c r="B19" t="inlineStr">
         <is>
-          <t>lily_amused</t>
+          <t>lily_react_1</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -734,7 +734,7 @@
     <row r="20">
       <c r="B20" t="inlineStr">
         <is>
-          <t>lily_silent</t>
+          <t>lily_react_2</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -761,7 +761,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>lily_confident</t>
+          <t>lily_react_0</t>
         </is>
       </c>
     </row>
@@ -797,7 +797,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>lily_amused</t>
+          <t>lily_react_1</t>
         </is>
       </c>
     </row>
@@ -833,7 +833,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>lily_silent</t>
+          <t>lily_react_2</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartBattleById("sukutsu_arena_master", 1, true);</t>
+          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("rank_g_trial", "sukutsu_arena_master");</t>
         </is>
       </c>
     </row>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_rank_up_G.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_rank_up_G.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -578,36 +578,46 @@
       </c>
     </row>
     <row r="13">
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>1.0</t>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>narr_2</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>（彼女は細長い爪で、血塗られた羊皮紙を軽く叩いた。パチン、パチンと、まるで死刑執行の秒読みのように。）</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>（彼女は細長い爪で、血塗られた羊皮紙を軽く叩いた。パチン、パチンと、まるで死刑執行の秒読みのように。）</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="F14" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>narr_2</t>
+          <t>lily_r2</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>（彼女は細長い爪で、血塗られた羊皮紙を軽く叩いた。パチン、パチンと、まるで死刑執行の秒読みのように。）</t>
+          <t>これは単なる試合ではありません。あなたがこの『ヴォイド・コロシアム』の胃袋に放り込まれる、最初の『餌』になるための儀式です。</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>（彼女は細長い爪で、血塗られた羊皮紙を軽く叩いた。パチン、パチンと、まるで死刑執行の秒読みのように。）</t>
+          <t>これは単なる試合ではありません。あなたがこの『ヴォイド・コロシアム』の胃袋に放り込まれる、最初の『餌』になるための儀式です。</t>
         </is>
       </c>
     </row>
@@ -619,17 +629,17 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>lily_r2</t>
+          <t>lily_r3</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>これは単なる試合ではありません。あなたがこの『ヴォイド・コロシアム』の胃袋に放り込まれる、最初の『餌』になるための儀式です。</t>
+          <t>対戦相手は『飢えたヴォイド・プチ』の群れ。……ああ、地上にいる愛らしい彼らだと思わないことね。敗者の絶望を啜って肥大化した、純然たる殺意の塊ですから。</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>これは単なる試合ではありません。あなたがこの『ヴォイド・コロシアム』の胃袋に放り込まれる、最初の『餌』になるための儀式です。</t>
+          <t>対戦相手は『飢えたヴォイド・プチ』の群れ。……ああ、地上にいる愛らしい彼らだと思わないことね。敗者の絶望を啜って肥大化した、純然たる殺意の塊ですから。</t>
         </is>
       </c>
     </row>
@@ -641,46 +651,51 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>lily_r3</t>
+          <t>lily_r4</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>対戦相手は『飢えたヴォイド・プチ』の群れ。……ああ、地上にいる愛らしい彼らだと思わないことね。敗者の絶望を啜って肥大化した、純然たる殺意の塊ですから。</t>
+          <t>もし、五体満足で戻られたら……その時は、正式に『闘士』として登録して差し上げます。死体袋の用意は、あちらの隅に。……ご武運を。</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>対戦相手は『飢えたヴォイド・プチ』の群れ。……ああ、地上にいる愛らしい彼らだと思わないことね。敗者の絶望を啜って肥大化した、純然たる殺意の塊ですから。</t>
+          <t>もし、五体満足で戻られたら……その時は、正式に『闘士』として登録して差し上げます。死体袋の用意は、あちらの隅に。……ご武運を。</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>lily_react_0</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>lily_r4</t>
+          <t>c_r_1</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>もし、五体満足で戻られたら……その時は、正式に『闘士』として登録して差し上げます。死体袋の用意は、あちらの隅に。……ご武運を。</t>
+          <t>……死体袋は不要だ。俺は生きて帰る</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>もし、五体満足で戻られたら……その時は、正式に『闘士』として登録して差し上げます。死体袋の用意は、あちらの隅に。……ご武運を。</t>
+          <t>……死体袋は不要だ。俺は生きて帰る</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="B18" t="inlineStr">
         <is>
-          <t>lily_react_0</t>
+          <t>lily_react_1</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -690,244 +705,239 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>c_r_1</t>
+          <t>c_r_2</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>……死体袋は不要だ。俺は生きて帰る</t>
+          <t>プチごときに負けるか。すぐに終わらせてやる</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>……死体袋は不要だ。俺は生きて帰る</t>
+          <t>プチごときに負けるか。すぐに終わらせてやる</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="B19" t="inlineStr">
         <is>
+          <t>lily_react_2</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>c_r_3</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>（無言で羊皮紙を受け取る）</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>（無言で羊皮紙を受け取る）</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>lily_react_0</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>lily_r5_a</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>ふふ、自信はおありのようで。……では、存分に。</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>ふふ、自信はおありのようで。……では、存分に。</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>vargus_advice</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
           <t>lily_react_1</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>c_r_2</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>プチごときに負けるか。すぐに終わらせてやる</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>プチごときに負けるか。すぐに終わらせてやる</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="B20" t="inlineStr">
+    </row>
+    <row r="24">
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>lily_r5_b</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>まあ。勇ましいこと。……その自信が、どこまで保つか楽しみですね。</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>まあ。勇ましいこと。……その自信が、どこまで保つか楽しみですね。</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>vargus_advice</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>lily_react_2</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>c_r_3</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>（無言で羊皮紙を受け取る）</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>（無言で羊皮紙を受け取る）</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>lily_react_0</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="F22" t="inlineStr">
+    </row>
+    <row r="27">
+      <c r="F27" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>lily_r5_a</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>ふふ、自信はおありのようで。……では、存分に。</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>ふふ、自信はおありのようで。……では、存分に。</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="B23" t="inlineStr">
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>lily_r5_c</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>……沈黙は恐怖の裏返しか、それとも覚悟の証か。まあ、どちらでもいいのですが。</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>……沈黙は恐怖の裏返しか、それとも覚悟の証か。まあ、どちらでもいいのですが。</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" t="inlineStr">
         <is>
           <t>vargus_advice</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>lily_react_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>lily_r5_b</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>まあ。勇ましいこと。……その自信が、どこまで保つか楽しみですね。</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>まあ。勇ましいこと。……その自信が、どこまで保つか楽しみですね。</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="B26" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>vargus_advice</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>lily_react_2</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>lily_r5_c</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>……沈黙は恐怖の裏返しか、それとも覚悟の証か。まあ、どちらでもいいのですが。</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>……沈黙は恐怖の裏返しか、それとも覚悟の証か。まあ、どちらでもいいのですが。</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>vargus_advice</t>
-        </is>
-      </c>
-    </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>vargus_advice</t>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="D31" t="inlineStr">
         <is>
-          <t>wait</t>
+          <t>focusChara</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="D32" t="inlineStr">
         <is>
-          <t>focusChara</t>
+          <t>wait</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>sukutsu_arena_master</t>
+          <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>narr_3</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>（闘技場へ繋がる鉄格子の前で、バルガスが研ぎ澄まされた剣を無造作に弄んでいる。）</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>（闘技場へ繋がる鉄格子の前で、バルガスが研ぎ澄まされた剣を無造作に弄んでいる。）</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="F34" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>narr_3</t>
+          <t>vargus_r1</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>（闘技場へ繋がる鉄格子の前で、バルガスが研ぎ澄まされた剣を無造作に弄んでいる。）</t>
+          <t>おい、足が震えてんぞ。</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>（闘技場へ繋がる鉄格子の前で、バルガスが研ぎ澄まされた剣を無造作に弄んでいる。）</t>
+          <t>おい、足が震えてんぞ。</t>
         </is>
       </c>
     </row>
@@ -939,17 +949,17 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>vargus_r1</t>
+          <t>vargus_r2</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>おい、足が震えてんぞ。</t>
+          <t>……いいか、一度だけ教えてやる。プチ共は『数』で来る。一匹一匹はゴミだが、囲まれればお前の肉は一瞬で削げ落ち、綺麗な骨の標本ができあがりだ。</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>おい、足が震えてんぞ。</t>
+          <t>……いいか、一度だけ教えてやる。プチ共は『数』で来る。一匹一匹はゴミだが、囲まれればお前の肉は一瞬で削げ落ち、綺麗な骨の標本ができあがりだ。</t>
         </is>
       </c>
     </row>
@@ -961,70 +971,48 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>vargus_r2</t>
+          <t>vargus_r3</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>……いいか、一度だけ教えてやる。プチ共は『数』で来る。一匹一匹はゴミだが、囲まれればお前の肉は一瞬で削げ落ち、綺麗な骨の標本ができあがりだ。</t>
+          <t>壁を背にしろ。そして、スタミナを切らすな。呼吸を乱した瞬間に、奴らは喉笛に吸い付いてくる。……ほら、行け。観客どもが、お前の悲鳴を心待ちにしてやがるぜ。</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>……いいか、一度だけ教えてやる。プチ共は『数』で来る。一匹一匹はゴミだが、囲まれればお前の肉は一瞬で削げ落ち、綺麗な骨の標本ができあがりだ。</t>
+          <t>壁を背にしろ。そして、スタミナを切らすな。呼吸を乱した瞬間に、奴らは喉笛に吸い付いてくる。……ほら、行け。観客どもが、お前の悲鳴を心待ちにしてやがるぜ。</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>vargus_r3</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>壁を背にしろ。そして、スタミナを切らすな。呼吸を乱した瞬間に、奴らは喉笛に吸い付いてくる。……ほら、行け。観客どもが、お前の悲鳴を心待ちにしてやがるぜ。</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>壁を背にしろ。そして、スタミナを切らすな。呼吸を乱した瞬間に、奴らは喉笛に吸い付いてくる。……ほら、行け。観客どもが、お前の悲鳴を心待ちにしてやがるぜ。</t>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>battle_start</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="B38" t="inlineStr">
+      <c r="A38" t="inlineStr">
         <is>
           <t>battle_start</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>battle_start</t>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("rank_g_trial", "sukutsu_arena_master");</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="D40" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("rank_g_trial", "sukutsu_arena_master");</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="D41" t="inlineStr">
         <is>
           <t>end</t>
         </is>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_rank_up_G.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_rank_up_G.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -927,17 +927,17 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>vargus_r1</t>
+          <t>vargus_r2</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>おい、足が震えてんぞ。</t>
+          <t>……いいか、一度だけ教えてやる。プチ共は『数』で来る。一匹一匹はゴミだが、囲まれればお前の肉は一瞬で削げ落ち、綺麗な骨の標本ができあがりだ。</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>おい、足が震えてんぞ。</t>
+          <t>……いいか、一度だけ教えてやる。プチ共は『数』で来る。一匹一匹はゴミだが、囲まれればお前の肉は一瞬で削げ落ち、綺麗な骨の標本ができあがりだ。</t>
         </is>
       </c>
     </row>
@@ -949,70 +949,48 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>vargus_r2</t>
+          <t>vargus_r3</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>……いいか、一度だけ教えてやる。プチ共は『数』で来る。一匹一匹はゴミだが、囲まれればお前の肉は一瞬で削げ落ち、綺麗な骨の標本ができあがりだ。</t>
+          <t>壁を背にしろ。そして、スタミナを切らすな。呼吸を乱した瞬間に、奴らは喉笛に吸い付いてくる。……ほら、行け。観客どもが、お前の悲鳴を心待ちにしてやがるぜ。</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>……いいか、一度だけ教えてやる。プチ共は『数』で来る。一匹一匹はゴミだが、囲まれればお前の肉は一瞬で削げ落ち、綺麗な骨の標本ができあがりだ。</t>
+          <t>壁を背にしろ。そして、スタミナを切らすな。呼吸を乱した瞬間に、奴らは喉笛に吸い付いてくる。……ほら、行け。観客どもが、お前の悲鳴を心待ちにしてやがるぜ。</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>vargus_r3</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>壁を背にしろ。そして、スタミナを切らすな。呼吸を乱した瞬間に、奴らは喉笛に吸い付いてくる。……ほら、行け。観客どもが、お前の悲鳴を心待ちにしてやがるぜ。</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>壁を背にしろ。そして、スタミナを切らすな。呼吸を乱した瞬間に、奴らは喉笛に吸い付いてくる。……ほら、行け。観客どもが、お前の悲鳴を心待ちにしてやがるぜ。</t>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>battle_start</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="B37" t="inlineStr">
+      <c r="A37" t="inlineStr">
         <is>
           <t>battle_start</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>battle_start</t>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("rank_g_trial", "sukutsu_arena_master");</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="D39" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("rank_g_trial", "sukutsu_arena_master");</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="D40" t="inlineStr">
         <is>
           <t>end</t>
         </is>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_rank_up_G.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_rank_up_G.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,60 +498,90 @@
       </c>
     </row>
     <row r="8">
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0.3</t>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>narr_1</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>（薄暗いロビーに、異次元の嵐が石壁を叩く音が不気味に響いている。空気は重く、血と錆の臭いが鼻腔を突く。）</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>（薄暗いロビーに、異次元の嵐が石壁を叩く音が不気味に響いている。空気は重く、血と錆の臭いが鼻腔を突く。）</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>lily_r1</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>……準備はよろしいですか？</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>……準備はよろしいですか？</t>
+        </is>
+      </c>
     </row>
     <row r="10">
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>narr_2</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>（彼女は細長い爪で、血塗られた羊皮紙を軽く叩いた。パチン、パチンと、まるで死刑執行の秒読みのように。）</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>（彼女は細長い爪で、血塗られた羊皮紙を軽く叩いた。パチン、パチンと、まるで死刑執行の秒読みのように。）</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="F11" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>narr_1</t>
+          <t>lily_r2</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>（薄暗いロビーに、異次元の嵐が石壁を叩く音が不気味に響いている。空気は重く、血と錆の臭いが鼻腔を突く。）</t>
+          <t>これは単なる試合ではありません。あなたがこの『ヴォイド・コロシアム』の胃袋に放り込まれる、最初の『餌』になるための儀式です。</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>（薄暗いロビーに、異次元の嵐が石壁を叩く音が不気味に響いている。空気は重く、血と錆の臭いが鼻腔を突く。）</t>
+          <t>これは単なる試合ではありません。あなたがこの『ヴォイド・コロシアム』の胃袋に放り込まれる、最初の『餌』になるための儀式です。</t>
         </is>
       </c>
     </row>
@@ -563,193 +593,163 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>lily_r1</t>
+          <t>lily_r3</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>……準備はよろしいですか？</t>
+          <t>対戦相手は『飢えたヴォイド・プチ』の群れ。……ああ、地上にいる愛らしい彼らだと思わないことね。敗者の絶望を啜って肥大化した、純然たる殺意の塊ですから。</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>……準備はよろしいですか？</t>
+          <t>対戦相手は『飢えたヴォイド・プチ』の群れ。……ああ、地上にいる愛らしい彼らだと思わないことね。敗者の絶望を啜って肥大化した、純然たる殺意の塊ですから。</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="F13" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>narr_2</t>
+          <t>lily_r4</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>（彼女は細長い爪で、血塗られた羊皮紙を軽く叩いた。パチン、パチンと、まるで死刑執行の秒読みのように。）</t>
+          <t>もし、五体満足で戻られたら……その時は、正式に『闘士』として登録して差し上げます。死体袋の用意は、あちらの隅に。……ご武運を。</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>（彼女は細長い爪で、血塗られた羊皮紙を軽く叩いた。パチン、パチンと、まるで死刑執行の秒読みのように。）</t>
+          <t>もし、五体満足で戻られたら……その時は、正式に『闘士』として登録して差し上げます。死体袋の用意は、あちらの隅に。……ご武運を。</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="F14" t="inlineStr">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>lily_react_0</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>c_r_1</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>……死体袋は不要だ。俺は生きて帰る</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>……死体袋は不要だ。俺は生きて帰る</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>lily_react_1</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>c_r_2</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>プチごときに負けるか。すぐに終わらせてやる</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>プチごときに負けるか。すぐに終わらせてやる</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>lily_react_2</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>c_r_3</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>（無言で羊皮紙を受け取る）</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>（無言で羊皮紙を受け取る）</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>lily_react_0</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="F18" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>lily_r2</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>これは単なる試合ではありません。あなたがこの『ヴォイド・コロシアム』の胃袋に放り込まれる、最初の『餌』になるための儀式です。</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>これは単なる試合ではありません。あなたがこの『ヴォイド・コロシアム』の胃袋に放り込まれる、最初の『餌』になるための儀式です。</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>lily_r3</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>対戦相手は『飢えたヴォイド・プチ』の群れ。……ああ、地上にいる愛らしい彼らだと思わないことね。敗者の絶望を啜って肥大化した、純然たる殺意の塊ですから。</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>対戦相手は『飢えたヴォイド・プチ』の群れ。……ああ、地上にいる愛らしい彼らだと思わないことね。敗者の絶望を啜って肥大化した、純然たる殺意の塊ですから。</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>lily_r4</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>もし、五体満足で戻られたら……その時は、正式に『闘士』として登録して差し上げます。死体袋の用意は、あちらの隅に。……ご武運を。</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>もし、五体満足で戻られたら……その時は、正式に『闘士』として登録して差し上げます。死体袋の用意は、あちらの隅に。……ご武運を。</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>lily_react_0</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>c_r_1</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>……死体袋は不要だ。俺は生きて帰る</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>……死体袋は不要だ。俺は生きて帰る</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>lily_react_1</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>c_r_2</t>
+          <t>lily_r5_a</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>プチごときに負けるか。すぐに終わらせてやる</t>
+          <t>ふふ、自信はおありのようで。……では、存分に。</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>プチごときに負けるか。すぐに終わらせてやる</t>
+          <t>ふふ、自信はおありのようで。……では、存分に。</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="B19" t="inlineStr">
         <is>
-          <t>lily_react_2</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>c_r_3</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>（無言で羊皮紙を受け取る）</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>（無言で羊皮紙を受け取る）</t>
+          <t>vargus_advice</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>lily_react_0</t>
+          <t>lily_react_1</t>
         </is>
       </c>
     </row>
@@ -761,17 +761,17 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>lily_r5_a</t>
+          <t>lily_r5_b</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>ふふ、自信はおありのようで。……では、存分に。</t>
+          <t>まあ。勇ましいこと。……その自信が、どこまで保つか楽しみですね。</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>ふふ、自信はおありのようで。……では、存分に。</t>
+          <t>まあ。勇ましいこと。……その自信が、どこまで保つか楽しみですね。</t>
         </is>
       </c>
     </row>
@@ -785,7 +785,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>lily_react_1</t>
+          <t>lily_react_2</t>
         </is>
       </c>
     </row>
@@ -797,17 +797,17 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>lily_r5_b</t>
+          <t>lily_r5_c</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>まあ。勇ましいこと。……その自信が、どこまで保つか楽しみですね。</t>
+          <t>……沈黙は恐怖の裏返しか、それとも覚悟の証か。まあ、どちらでもいいのですが。</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>まあ。勇ましいこと。……その自信が、どこまで保つか楽しみですね。</t>
+          <t>……沈黙は恐怖の裏返しか、それとも覚悟の証か。まあ、どちらでもいいのですが。</t>
         </is>
       </c>
     </row>
@@ -821,176 +821,104 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>lily_react_2</t>
+          <t>vargus_advice</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="F27" t="inlineStr">
         <is>
-          <t>sukutsu_receptionist</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>lily_r5_c</t>
+          <t>narr_3</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>……沈黙は恐怖の裏返しか、それとも覚悟の証か。まあ、どちらでもいいのですが。</t>
+          <t>（闘技場へ繋がる鉄格子の前で、バルガスが研ぎ澄まされた剣を無造作に弄んでいる。）</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>……沈黙は恐怖の裏返しか、それとも覚悟の証か。まあ、どちらでもいいのですが。</t>
+          <t>（闘技場へ繋がる鉄格子の前で、バルガスが研ぎ澄まされた剣を無造作に弄んでいる。）</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>vargus_advice</t>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>vargus_r2</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>……いいか、一度だけ教えてやる。プチ共は『数』で来る。一匹一匹はゴミだが、囲まれればお前の肉は一瞬で削げ落ち、綺麗な骨の標本ができあがりだ。</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>……いいか、一度だけ教えてやる。プチ共は『数』で来る。一匹一匹はゴミだが、囲まれればお前の肉は一瞬で削げ落ち、綺麗な骨の標本ができあがりだ。</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>vargus_advice</t>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>vargus_r3</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>壁を背にしろ。そして、スタミナを切らすな。呼吸を乱した瞬間に、奴らは喉笛に吸い付いてくる。……ほら、行け。観客どもが、お前の悲鳴を心待ちにしてやがるぜ。</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>壁を背にしろ。そして、スタミナを切らすな。呼吸を乱した瞬間に、奴らは喉笛に吸い付いてくる。……ほら、行け。観客どもが、お前の悲鳴を心待ちにしてやがるぜ。</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>0.3</t>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>battle_start</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>battle_start</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="D32" t="inlineStr">
         <is>
-          <t>wait</t>
+          <t>eval</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("rank_g_trial", "sukutsu_arena_master");</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>narr_3</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>（闘技場へ繋がる鉄格子の前で、バルガスが研ぎ澄まされた剣を無造作に弄んでいる。）</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>（闘技場へ繋がる鉄格子の前で、バルガスが研ぎ澄まされた剣を無造作に弄んでいる。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>vargus_r2</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>……いいか、一度だけ教えてやる。プチ共は『数』で来る。一匹一匹はゴミだが、囲まれればお前の肉は一瞬で削げ落ち、綺麗な骨の標本ができあがりだ。</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>……いいか、一度だけ教えてやる。プチ共は『数』で来る。一匹一匹はゴミだが、囲まれればお前の肉は一瞬で削げ落ち、綺麗な骨の標本ができあがりだ。</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>vargus_r3</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>壁を背にしろ。そして、スタミナを切らすな。呼吸を乱した瞬間に、奴らは喉笛に吸い付いてくる。……ほら、行け。観客どもが、お前の悲鳴を心待ちにしてやがるぜ。</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>壁を背にしろ。そして、スタミナを切らすな。呼吸を乱した瞬間に、奴らは喉笛に吸い付いてくる。……ほら、行け。観客どもが、お前の悲鳴を心待ちにしてやがるぜ。</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>battle_start</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>battle_start</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("rank_g_trial", "sukutsu_arena_master");</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="D39" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>end</t>
         </is>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_rank_up_G.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_rank_up_G.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,136 +488,106 @@
     <row r="7">
       <c r="D7" t="inlineStr">
         <is>
-          <t>eval</t>
+          <t>fadeOut</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/sukutsu_arena_opening");             var data = SoundManager.current.GetData("BGM/sukutsu_arena_opening");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/sukutsu_arena_opening");             }</t>
+          <t>1.0,black</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="D8" t="inlineStr">
         <is>
-          <t>wait</t>
+          <t>eval</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>dm.imageBG.enabled = true; dm.imageBG.sprite = "Drama/arena_battle_normal".LoadSprite();</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="D9" t="inlineStr">
         <is>
-          <t>focusChara</t>
+          <t>fadeIn</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>sukutsu_receptionist</t>
+          <t>1.0,black</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="D10" t="inlineStr">
         <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/sukutsu_arena_opening");             var data = SoundManager.current.GetData("BGM/sukutsu_arena_opening");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/sukutsu_arena_opening");             }</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="D11" t="inlineStr">
+        <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>0.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>narr_1</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>（薄暗いロビーに、異次元の嵐が石壁を叩く音が不気味に響いている。空気は重く、血と錆の臭いが鼻腔を突く。）</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>（薄暗いロビーに、異次元の嵐が石壁を叩く音が不気味に響いている。空気は重く、血と錆の臭いが鼻腔を突く。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>lily_r1</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>……準備はよろしいですか？</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>……準備はよろしいですか？</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>narr_2</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>（彼女は細長い爪で、血塗られた羊皮紙を軽く叩いた。パチン、パチンと、まるで死刑執行の秒読みのように。）</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>（彼女は細長い爪で、血塗られた羊皮紙を軽く叩いた。パチン、パチンと、まるで死刑執行の秒読みのように。）</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="F14" t="inlineStr">
         <is>
-          <t>sukutsu_receptionist</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>lily_r2</t>
+          <t>narr_1</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>これは単なる試合ではありません。あなたがこの『ヴォイド・コロシアム』の胃袋に放り込まれる、最初の『餌』になるための儀式です。</t>
+          <t>（薄暗いロビーに、異次元の嵐が石壁を叩く音が不気味に響いている。空気は重く、血と錆の臭いが鼻腔を突く。）</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>これは単なる試合ではありません。あなたがこの『ヴォイド・コロシアム』の胃袋に放り込まれる、最初の『餌』になるための儀式です。</t>
+          <t>（薄暗いロビーに、異次元の嵐が石壁を叩く音が不気味に響いている。空気は重く、血と錆の臭いが鼻腔を突く。）</t>
         </is>
       </c>
     </row>
@@ -629,163 +599,193 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>lily_r3</t>
+          <t>lily_r1</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>対戦相手は『飢えたヴォイド・プチ』の群れ。……ああ、地上にいる愛らしい彼らだと思わないことね。敗者の絶望を啜って肥大化した、純然たる殺意の塊ですから。</t>
+          <t>……準備はよろしいですか？</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>対戦相手は『飢えたヴォイド・プチ』の群れ。……ああ、地上にいる愛らしい彼らだと思わないことね。敗者の絶望を啜って肥大化した、純然たる殺意の塊ですから。</t>
+          <t>……準備はよろしいですか？</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="F16" t="inlineStr">
         <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>narr_2</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>（彼女は細長い爪で、血塗られた羊皮紙を軽く叩いた。パチン、パチンと、まるで死刑執行の秒読みのように。）</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>（彼女は細長い爪で、血塗られた羊皮紙を軽く叩いた。パチン、パチンと、まるで死刑執行の秒読みのように。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="F17" t="inlineStr">
+        <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>lily_r2</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>これは単なる試合ではありません。あなたがこの闘技場の胃袋に放り込まれる、最初の『餌』になるための儀式です。</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>これは単なる試合ではありません。あなたがこの闘技場の胃袋に放り込まれる、最初の『餌』になるための儀式です。</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>lily_r3</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>対戦相手は『飢えたヴォイド・プチ』の群れ。……ああ、地上にいる愛らしい彼らだと思わないことね。敗者の絶望を啜って肥大化した、純然たる殺意の塊ですから。</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>対戦相手は『飢えたヴォイド・プチ』の群れ。……ああ、地上にいる愛らしい彼らだと思わないことね。敗者の絶望を啜って肥大化した、純然たる殺意の塊ですから。</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
         <is>
           <t>lily_r4</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>もし、五体満足で戻られたら……その時は、正式に『闘士』として登録して差し上げます。死体袋の用意は、あちらの隅に。……ご武運を。</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>もし、五体満足で戻られたら……その時は、正式に『闘士』として登録して差し上げます。死体袋の用意は、あちらの隅に。……ご武運を。</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="B17" t="inlineStr">
+    <row r="20">
+      <c r="B20" t="inlineStr">
         <is>
           <t>lily_react_0</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>c_r_1</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>……死体袋は不要だ。俺は生きて帰る</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>……死体袋は不要だ。俺は生きて帰る</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="B18" t="inlineStr">
+    <row r="21">
+      <c r="B21" t="inlineStr">
         <is>
           <t>lily_react_1</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>c_r_2</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>プチごときに負けるか。すぐに終わらせてやる</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>プチごときに負けるか。すぐに終わらせてやる</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>lily_react_2</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>c_r_3</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>（無言で羊皮紙を受け取る）</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>（無言で羊皮紙を受け取る）</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>lily_react_0</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>lily_r5_a</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>ふふ、自信はおありのようで。……では、存分に。</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>ふふ、自信はおありのようで。……では、存分に。</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="B22" t="inlineStr">
         <is>
-          <t>vargus_advice</t>
+          <t>lily_react_2</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>c_r_3</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>（無言で羊皮紙を受け取る）</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>（無言で羊皮紙を受け取る）</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>lily_react_1</t>
+          <t>lily_react_0</t>
         </is>
       </c>
     </row>
@@ -797,17 +797,17 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>lily_r5_b</t>
+          <t>lily_r5_a</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>まあ。勇ましいこと。……その自信が、どこまで保つか楽しみですね。</t>
+          <t>ふふ、自信はおありのようで。……では、存分に。</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>まあ。勇ましいこと。……その自信が、どこまで保つか楽しみですね。</t>
+          <t>ふふ、自信はおありのようで。……では、存分に。</t>
         </is>
       </c>
     </row>
@@ -821,7 +821,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>lily_react_2</t>
+          <t>lily_react_1</t>
         </is>
       </c>
     </row>
@@ -833,17 +833,17 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>lily_r5_c</t>
+          <t>lily_r5_b</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>……沈黙は恐怖の裏返しか、それとも覚悟の証か。まあ、どちらでもいいのですが。</t>
+          <t>まあ。勇ましいこと。……その自信が、どこまで保つか楽しみですね。</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>……沈黙は恐怖の裏返しか、それとも覚悟の証か。まあ、どちらでもいいのですが。</t>
+          <t>まあ。勇ましいこと。……その自信が、どこまで保つか楽しみですね。</t>
         </is>
       </c>
     </row>
@@ -857,140 +857,176 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
+          <t>lily_react_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>lily_r5_c</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>……沈黙は恐怖の裏返しか、それとも覚悟の証か。まあ、どちらでもいいのですが。</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>……沈黙は恐怖の裏返しか、それとも覚悟の証か。まあ、どちらでもいいのですが。</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" t="inlineStr">
+        <is>
           <t>vargus_advice</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="D30" t="inlineStr">
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>vargus_advice</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="D33" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="D31" t="inlineStr">
+    <row r="34">
+      <c r="D34" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="D32" t="inlineStr">
+    <row r="35">
+      <c r="D35" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="F33" t="inlineStr">
+    <row r="36">
+      <c r="F36" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>narr_3</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>（闘技場へ繋がる鉄格子の前で、バルガスが研ぎ澄まされた剣を無造作に弄んでいる。）</t>
         </is>
       </c>
-      <c r="J33" t="inlineStr">
+      <c r="J36" t="inlineStr">
         <is>
           <t>（闘技場へ繋がる鉄格子の前で、バルガスが研ぎ澄まされた剣を無造作に弄んでいる。）</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="F34" t="inlineStr">
+    <row r="37">
+      <c r="F37" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>vargus_r2</t>
         </is>
       </c>
-      <c r="I34" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>……いいか、一度だけ教えてやる。プチ共は『数』で来る。一匹一匹はゴミだが、囲まれればお前の肉は一瞬で削げ落ち、綺麗な骨の標本ができあがりだ。</t>
         </is>
       </c>
-      <c r="J34" t="inlineStr">
+      <c r="J37" t="inlineStr">
         <is>
           <t>……いいか、一度だけ教えてやる。プチ共は『数』で来る。一匹一匹はゴミだが、囲まれればお前の肉は一瞬で削げ落ち、綺麗な骨の標本ができあがりだ。</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="F35" t="inlineStr">
+    <row r="38">
+      <c r="F38" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>vargus_r3</t>
         </is>
       </c>
-      <c r="I35" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>壁を背にしろ。そして、スタミナを切らすな。呼吸を乱した瞬間に、奴らは喉笛に吸い付いてくる。……ほら、行け。観客どもが、お前の悲鳴を心待ちにしてやがるぜ。</t>
         </is>
       </c>
-      <c r="J35" t="inlineStr">
+      <c r="J38" t="inlineStr">
         <is>
           <t>壁を背にしろ。そして、スタミナを切らすな。呼吸を乱した瞬間に、奴らは喉笛に吸い付いてくる。……ほら、行け。観客どもが、お前の悲鳴を心待ちにしてやがるぜ。</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="B36" t="inlineStr">
+    <row r="39">
+      <c r="B39" t="inlineStr">
         <is>
           <t>battle_start</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+    <row r="40">
+      <c r="A40" t="inlineStr">
         <is>
           <t>battle_start</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="D38" t="inlineStr">
+    <row r="41">
+      <c r="D41" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("rank_g_trial", "sukutsu_arena_master");</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="D39" t="inlineStr">
+    <row r="42">
+      <c r="D42" t="inlineStr">
         <is>
           <t>end</t>
         </is>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_rank_up_G.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_rank_up_G.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K42"/>
+  <dimension ref="A1:L42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,40 +439,45 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>if2</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
           <t>action</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>param</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>actor</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>text_JP</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>text_EN</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>text</t>
         </is>
@@ -486,216 +491,216 @@
       </c>
     </row>
     <row r="7">
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>fadeOut</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1.0,black</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>dm.imageBG.enabled = true; dm.imageBG.sprite = "Drama/arena_battle_normal".LoadSprite();</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>fadeIn</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1.0,black</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/sukutsu_arena_opening");             var data = SoundManager.current.GetData("BGM/sukutsu_arena_opening");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/sukutsu_arena_opening");             }</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>narr_1</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>（薄暗いロビーに、異次元の嵐が石壁を叩く音が不気味に響いている。空気は重く、血と錆の臭いが鼻腔を突く。）</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>（薄暗いロビーに、異次元の嵐が石壁を叩く音が不気味に響いている。空気は重く、血と錆の臭いが鼻腔を突く。）</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>lily_r1</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>……準備はよろしいですか？</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>……準備はよろしいですか？</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>narr_2</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>（彼女は細長い爪で、血塗られた羊皮紙を軽く叩いた。パチン、パチンと、まるで死刑執行の秒読みのように。）</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>（彼女は細長い爪で、血塗られた羊皮紙を軽く叩いた。パチン、パチンと、まるで死刑執行の秒読みのように。）</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>lily_r2</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>これは単なる試合ではありません。あなたがこの闘技場の胃袋に放り込まれる、最初の『餌』になるための儀式です。</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>これは単なる試合ではありません。あなたがこの闘技場の胃袋に放り込まれる、最初の『餌』になるための儀式です。</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>lily_r3</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>対戦相手は『飢えたヴォイド・プチ』の群れ。……ああ、地上にいる愛らしい彼らだと思わないことね。敗者の絶望を啜って肥大化した、純然たる殺意の塊ですから。</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>対戦相手は『飢えたヴォイド・プチ』の群れ。……ああ、地上にいる愛らしい彼らだと思わないことね。敗者の絶望を啜って肥大化した、純然たる殺意の塊ですから。</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>lily_r4</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>もし、五体満足で戻られたら……その時は、正式に『闘士』として登録して差し上げます。死体袋の用意は、あちらの隅に。……ご武運を。</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>もし、五体満足で戻られたら……その時は、正式に『闘士』として登録して差し上げます。死体袋の用意は、あちらの隅に。……ご武運を。</t>
         </is>
@@ -707,22 +712,22 @@
           <t>lily_react_0</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>c_r_1</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>……死体袋は不要だ。俺は生きて帰る</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>……死体袋は不要だ。俺は生きて帰る</t>
         </is>
@@ -734,22 +739,22 @@
           <t>lily_react_1</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>c_r_2</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>プチごときに負けるか。すぐに終わらせてやる</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>プチごときに負けるか。すぐに終わらせてやる</t>
         </is>
@@ -761,22 +766,22 @@
           <t>lily_react_2</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>c_r_3</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>（無言で羊皮紙を受け取る）</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>（無言で羊皮紙を受け取る）</t>
         </is>
@@ -790,22 +795,22 @@
       </c>
     </row>
     <row r="24">
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>lily_r5_a</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>ふふ、自信はおありのようで。……では、存分に。</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>ふふ、自信はおありのようで。……では、存分に。</t>
         </is>
@@ -826,22 +831,22 @@
       </c>
     </row>
     <row r="27">
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>lily_r5_b</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>まあ。勇ましいこと。……その自信が、どこまで保つか楽しみですね。</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>まあ。勇ましいこと。……その自信が、どこまで保つか楽しみですね。</t>
         </is>
@@ -862,22 +867,22 @@
       </c>
     </row>
     <row r="30">
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>lily_r5_c</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>……沈黙は恐怖の裏返しか、それとも覚悟の証か。まあ、どちらでもいいのですが。</t>
         </is>
       </c>
-      <c r="J30" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>……沈黙は恐怖の裏返しか、それとも覚悟の証か。まあ、どちらでもいいのですが。</t>
         </is>
@@ -898,102 +903,102 @@
       </c>
     </row>
     <row r="33">
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="F36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>narr_3</t>
         </is>
       </c>
-      <c r="I36" t="inlineStr">
+      <c r="J36" t="inlineStr">
         <is>
           <t>（闘技場へ繋がる鉄格子の前で、バルガスが研ぎ澄まされた剣を無造作に弄んでいる。）</t>
         </is>
       </c>
-      <c r="J36" t="inlineStr">
+      <c r="K36" t="inlineStr">
         <is>
           <t>（闘技場へ繋がる鉄格子の前で、バルガスが研ぎ澄まされた剣を無造作に弄んでいる。）</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="F37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>vargus_r2</t>
         </is>
       </c>
-      <c r="I37" t="inlineStr">
+      <c r="J37" t="inlineStr">
         <is>
           <t>……いいか、一度だけ教えてやる。プチ共は『数』で来る。一匹一匹はゴミだが、囲まれればお前の肉は一瞬で削げ落ち、綺麗な骨の標本ができあがりだ。</t>
         </is>
       </c>
-      <c r="J37" t="inlineStr">
+      <c r="K37" t="inlineStr">
         <is>
           <t>……いいか、一度だけ教えてやる。プチ共は『数』で来る。一匹一匹はゴミだが、囲まれればお前の肉は一瞬で削げ落ち、綺麗な骨の標本ができあがりだ。</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="F38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>vargus_r3</t>
         </is>
       </c>
-      <c r="I38" t="inlineStr">
+      <c r="J38" t="inlineStr">
         <is>
           <t>壁を背にしろ。そして、スタミナを切らすな。呼吸を乱した瞬間に、奴らは喉笛に吸い付いてくる。……ほら、行け。観客どもが、お前の悲鳴を心待ちにしてやがるぜ。</t>
         </is>
       </c>
-      <c r="J38" t="inlineStr">
+      <c r="K38" t="inlineStr">
         <is>
           <t>壁を背にしろ。そして、スタミナを切らすな。呼吸を乱した瞬間に、奴らは喉笛に吸い付いてくる。……ほら、行け。観客どもが、お前の悲鳴を心待ちにしてやがるぜ。</t>
         </is>
@@ -1014,19 +1019,19 @@
       </c>
     </row>
     <row r="41">
-      <c r="D41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("rank_g_trial", "sukutsu_arena_master");</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="D42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>end</t>
         </is>
